--- a/sia/expdata/5001.xlsx
+++ b/sia/expdata/5001.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="18">
   <si>
     <t>col</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>sin2theta</t>
+  </si>
+  <si>
+    <t>percent</t>
   </si>
 </sst>
 </file>
@@ -401,18 +404,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="13" width="10.85546875" customWidth="1"/>
+    <col min="11" max="14" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,16 +450,19 @@
         <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -494,13 +500,17 @@
         <v>-0.47</v>
       </c>
       <c r="M2">
+        <f>L2/100</f>
+        <v>-4.6999999999999993E-3</v>
+      </c>
+      <c r="N2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -538,13 +548,17 @@
         <v>-0.8</v>
       </c>
       <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">L3/100</f>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="N3">
         <v>0.1</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -582,13 +596,17 @@
         <v>-1.08</v>
       </c>
       <c r="M4">
+        <f t="shared" si="0"/>
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="N4">
         <v>0.11</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -626,13 +644,17 @@
         <v>-0.97</v>
       </c>
       <c r="M5">
+        <f t="shared" si="0"/>
+        <v>-9.7000000000000003E-3</v>
+      </c>
+      <c r="N5">
         <v>0.12</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -670,13 +692,17 @@
         <v>-1.49</v>
       </c>
       <c r="M6">
+        <f t="shared" si="0"/>
+        <v>-1.49E-2</v>
+      </c>
+      <c r="N6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -714,13 +740,17 @@
         <v>-1.79</v>
       </c>
       <c r="M7">
+        <f t="shared" si="0"/>
+        <v>-1.7899999999999999E-2</v>
+      </c>
+      <c r="N7">
         <v>0.18</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -758,13 +788,17 @@
         <v>-2.0299999999999998</v>
       </c>
       <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-2.0299999999999999E-2</v>
+      </c>
+      <c r="N8">
         <v>0.23</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -802,13 +836,17 @@
         <v>-2.12</v>
       </c>
       <c r="M9">
+        <f t="shared" si="0"/>
+        <v>-2.12E-2</v>
+      </c>
+      <c r="N9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -846,17 +884,65 @@
         <v>-3.56</v>
       </c>
       <c r="M10">
+        <f t="shared" si="0"/>
+        <v>-3.56E-2</v>
+      </c>
+      <c r="N10">
         <v>0.46</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.61</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>10.58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0.31</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <v>0.53</v>
+      </c>
+      <c r="J11">
+        <v>0.46</v>
+      </c>
+      <c r="K11">
+        <v>0.86</v>
+      </c>
+      <c r="L11">
+        <v>-0.72</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="N11">
+        <v>0.1</v>
+      </c>
+      <c r="O11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -879,28 +965,32 @@
         <v>0.31</v>
       </c>
       <c r="H12">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="I12">
         <v>0.53</v>
       </c>
       <c r="J12">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="K12">
         <v>0.86</v>
       </c>
       <c r="L12">
-        <v>-0.72</v>
+        <v>-0.83</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>-8.3000000000000001E-3</v>
       </c>
       <c r="N12">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -923,28 +1013,32 @@
         <v>0.31</v>
       </c>
       <c r="H13">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="I13">
         <v>0.53</v>
       </c>
       <c r="J13">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="K13">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L13">
-        <v>-0.83</v>
+        <v>-1.24</v>
       </c>
       <c r="M13">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.24E-2</v>
       </c>
       <c r="N13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="O13">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -967,28 +1061,32 @@
         <v>0.31</v>
       </c>
       <c r="H14">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="I14">
         <v>0.53</v>
       </c>
       <c r="J14">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="K14">
         <v>0.85</v>
       </c>
       <c r="L14">
-        <v>-1.24</v>
+        <v>-1.2</v>
       </c>
       <c r="M14">
-        <v>0.08</v>
+        <f t="shared" si="0"/>
+        <v>-1.2E-2</v>
       </c>
       <c r="N14">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.09</v>
+      </c>
+      <c r="O14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1011,28 +1109,32 @@
         <v>0.31</v>
       </c>
       <c r="H15">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="I15">
         <v>0.53</v>
       </c>
       <c r="J15">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="K15">
         <v>0.85</v>
       </c>
       <c r="L15">
-        <v>-1.2</v>
+        <v>-1.82</v>
       </c>
       <c r="M15">
-        <v>0.09</v>
+        <f t="shared" si="0"/>
+        <v>-1.8200000000000001E-2</v>
       </c>
       <c r="N15">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.11</v>
+      </c>
+      <c r="O15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1055,28 +1157,32 @@
         <v>0.31</v>
       </c>
       <c r="H16">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="I16">
         <v>0.53</v>
       </c>
       <c r="J16">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="K16">
         <v>0.85</v>
       </c>
       <c r="L16">
-        <v>-1.82</v>
+        <v>-1.89</v>
       </c>
       <c r="M16">
-        <v>0.11</v>
+        <f t="shared" si="0"/>
+        <v>-1.89E-2</v>
       </c>
       <c r="N16">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+      <c r="O16">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1099,28 +1205,32 @@
         <v>0.31</v>
       </c>
       <c r="H17">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="I17">
         <v>0.53</v>
       </c>
       <c r="J17">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="K17">
         <v>0.85</v>
       </c>
       <c r="L17">
-        <v>-1.89</v>
+        <v>-2.38</v>
       </c>
       <c r="M17">
-        <v>0.13</v>
+        <f t="shared" si="0"/>
+        <v>-2.3799999999999998E-2</v>
       </c>
       <c r="N17">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+      <c r="O17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1143,28 +1253,32 @@
         <v>0.31</v>
       </c>
       <c r="H18">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="I18">
         <v>0.53</v>
       </c>
       <c r="J18">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="K18">
         <v>0.85</v>
       </c>
       <c r="L18">
-        <v>-2.38</v>
+        <v>-2.88</v>
       </c>
       <c r="M18">
-        <v>0.17</v>
+        <f t="shared" si="0"/>
+        <v>-2.8799999999999999E-2</v>
       </c>
       <c r="N18">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.21</v>
+      </c>
+      <c r="O18">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1187,76 +1301,128 @@
         <v>0.31</v>
       </c>
       <c r="H19">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="I19">
         <v>0.53</v>
       </c>
       <c r="J19">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="K19">
+        <v>0.84</v>
+      </c>
+      <c r="L19">
+        <v>-4.63</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>-4.6300000000000001E-2</v>
+      </c>
+      <c r="N19">
+        <v>0.33</v>
+      </c>
+      <c r="O19">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>10.58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0.39</v>
+      </c>
+      <c r="H20">
+        <v>0.25</v>
+      </c>
+      <c r="I20">
+        <v>0.59</v>
+      </c>
+      <c r="J20">
+        <v>0.46</v>
+      </c>
+      <c r="K20">
+        <v>0.86</v>
+      </c>
+      <c r="L20">
+        <v>-0.82</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>-8.199999999999999E-3</v>
+      </c>
+      <c r="N20">
+        <v>0.11</v>
+      </c>
+      <c r="O20">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>10.58</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0.39</v>
+      </c>
+      <c r="H21">
+        <v>0.31</v>
+      </c>
+      <c r="I21">
+        <v>0.59</v>
+      </c>
+      <c r="J21">
+        <v>0.53</v>
+      </c>
+      <c r="K21">
         <v>0.85</v>
       </c>
-      <c r="L19">
-        <v>-2.88</v>
-      </c>
-      <c r="M19">
-        <v>0.21</v>
-      </c>
-      <c r="N19">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>10.58</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>0.31</v>
-      </c>
-      <c r="H20">
-        <v>0.87</v>
-      </c>
-      <c r="I20">
-        <v>0.53</v>
-      </c>
-      <c r="J20">
-        <v>0.97</v>
-      </c>
-      <c r="K20">
-        <v>0.84</v>
-      </c>
-      <c r="L20">
-        <v>-4.63</v>
-      </c>
-      <c r="M20">
-        <v>0.33</v>
-      </c>
-      <c r="N20">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>-1.08</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.08</v>
+      </c>
+      <c r="O21">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1279,28 +1445,32 @@
         <v>0.39</v>
       </c>
       <c r="H22">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="I22">
         <v>0.59</v>
       </c>
       <c r="J22">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="K22">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L22">
-        <v>-0.82</v>
+        <v>-1.29</v>
       </c>
       <c r="M22">
-        <v>0.11</v>
+        <f t="shared" si="0"/>
+        <v>-1.29E-2</v>
       </c>
       <c r="N22">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="O22">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1323,28 +1493,32 @@
         <v>0.39</v>
       </c>
       <c r="H23">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="I23">
         <v>0.59</v>
       </c>
       <c r="J23">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="K23">
         <v>0.85</v>
       </c>
       <c r="L23">
-        <v>-1.08</v>
+        <v>-1.55</v>
       </c>
       <c r="M23">
-        <v>0.08</v>
+        <f t="shared" si="0"/>
+        <v>-1.55E-2</v>
       </c>
       <c r="N23">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.09</v>
+      </c>
+      <c r="O23">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1367,28 +1541,32 @@
         <v>0.39</v>
       </c>
       <c r="H24">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="I24">
         <v>0.59</v>
       </c>
       <c r="J24">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="K24">
         <v>0.85</v>
       </c>
       <c r="L24">
-        <v>-1.29</v>
+        <v>-1.84</v>
       </c>
       <c r="M24">
-        <v>0.08</v>
+        <f t="shared" si="0"/>
+        <v>-1.84E-2</v>
       </c>
       <c r="N24">
+        <v>0.11</v>
+      </c>
+      <c r="O24">
         <v>0.22</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1411,28 +1589,32 @@
         <v>0.39</v>
       </c>
       <c r="H25">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="I25">
         <v>0.59</v>
       </c>
       <c r="J25">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="K25">
         <v>0.85</v>
       </c>
       <c r="L25">
-        <v>-1.55</v>
+        <v>-1.89</v>
       </c>
       <c r="M25">
-        <v>0.09</v>
+        <f t="shared" si="0"/>
+        <v>-1.89E-2</v>
       </c>
       <c r="N25">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1455,28 +1637,32 @@
         <v>0.39</v>
       </c>
       <c r="H26">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
       <c r="I26">
         <v>0.59</v>
       </c>
       <c r="J26">
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
       <c r="K26">
         <v>0.85</v>
       </c>
       <c r="L26">
-        <v>-1.84</v>
+        <v>-2.27</v>
       </c>
       <c r="M26">
-        <v>0.11</v>
+        <f t="shared" si="0"/>
+        <v>-2.2700000000000001E-2</v>
       </c>
       <c r="N26">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+      <c r="O26">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1499,28 +1685,32 @@
         <v>0.39</v>
       </c>
       <c r="H27">
-        <v>0.61</v>
+        <v>0.77</v>
       </c>
       <c r="I27">
         <v>0.59</v>
       </c>
       <c r="J27">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="K27">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L27">
-        <v>-1.89</v>
+        <v>-3.12</v>
       </c>
       <c r="M27">
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>-3.1200000000000002E-2</v>
       </c>
       <c r="N27">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.21</v>
+      </c>
+      <c r="O27">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1543,120 +1733,176 @@
         <v>0.39</v>
       </c>
       <c r="H28">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="I28">
         <v>0.59</v>
       </c>
       <c r="J28">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="K28">
+        <v>0.84</v>
+      </c>
+      <c r="L28">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>-4.5199999999999997E-2</v>
+      </c>
+      <c r="N28">
+        <v>0.33</v>
+      </c>
+      <c r="O28">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>10.58</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>0.46</v>
+      </c>
+      <c r="H29">
+        <v>0.25</v>
+      </c>
+      <c r="I29">
+        <v>0.65</v>
+      </c>
+      <c r="J29">
+        <v>0.46</v>
+      </c>
+      <c r="K29">
+        <v>0.86</v>
+      </c>
+      <c r="L29">
+        <v>-1.25</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="N29">
+        <v>0.12</v>
+      </c>
+      <c r="O29">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>10.58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>0.46</v>
+      </c>
+      <c r="H30">
+        <v>0.31</v>
+      </c>
+      <c r="I30">
+        <v>0.65</v>
+      </c>
+      <c r="J30">
+        <v>0.53</v>
+      </c>
+      <c r="K30">
         <v>0.85</v>
       </c>
-      <c r="L28">
-        <v>-2.27</v>
-      </c>
-      <c r="M28">
-        <v>0.17</v>
-      </c>
-      <c r="N28">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>10.58</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3</v>
-      </c>
-      <c r="G29">
+      <c r="L30">
+        <v>-1.3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000000001E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.09</v>
+      </c>
+      <c r="O30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>10.58</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0.46</v>
+      </c>
+      <c r="H31">
         <v>0.39</v>
       </c>
-      <c r="H29">
-        <v>0.77</v>
-      </c>
-      <c r="I29">
+      <c r="I31">
+        <v>0.65</v>
+      </c>
+      <c r="J31">
         <v>0.59</v>
       </c>
-      <c r="J29">
-        <v>0.88</v>
-      </c>
-      <c r="K29">
-        <v>0.84</v>
-      </c>
-      <c r="L29">
-        <v>-3.12</v>
-      </c>
-      <c r="M29">
-        <v>0.21</v>
-      </c>
-      <c r="N29">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>10.58</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>0.39</v>
-      </c>
-      <c r="H30">
-        <v>0.88</v>
-      </c>
-      <c r="I30">
-        <v>0.59</v>
-      </c>
-      <c r="J30">
-        <v>0.97</v>
-      </c>
-      <c r="K30">
-        <v>0.84</v>
-      </c>
-      <c r="L30">
-        <v>-4.5199999999999996</v>
-      </c>
-      <c r="M30">
-        <v>0.33</v>
-      </c>
-      <c r="N30">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0.85</v>
+      </c>
+      <c r="L31">
+        <v>-1.58</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>-1.5800000000000002E-2</v>
+      </c>
+      <c r="N31">
+        <v>0.09</v>
+      </c>
+      <c r="O31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1679,28 +1925,32 @@
         <v>0.46</v>
       </c>
       <c r="H32">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="I32">
         <v>0.65</v>
       </c>
       <c r="J32">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="K32">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L32">
-        <v>-1.25</v>
+        <v>-1.86</v>
       </c>
       <c r="M32">
-        <v>0.12</v>
+        <f t="shared" si="0"/>
+        <v>-1.8600000000000002E-2</v>
       </c>
       <c r="N32">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="O32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1723,28 +1973,32 @@
         <v>0.46</v>
       </c>
       <c r="H33">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
       <c r="I33">
         <v>0.65</v>
       </c>
       <c r="J33">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
       <c r="K33">
         <v>0.85</v>
       </c>
       <c r="L33">
-        <v>-1.3</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="M33">
-        <v>0.09</v>
+        <f t="shared" si="0"/>
+        <v>-2.2400000000000003E-2</v>
       </c>
       <c r="N33">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+      <c r="O33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1767,28 +2021,32 @@
         <v>0.46</v>
       </c>
       <c r="H34">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="I34">
         <v>0.65</v>
       </c>
       <c r="J34">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
       <c r="K34">
         <v>0.85</v>
       </c>
       <c r="L34">
-        <v>-1.58</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="M34">
-        <v>0.09</v>
+        <f t="shared" si="0"/>
+        <v>-2.5499999999999998E-2</v>
       </c>
       <c r="N34">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="O34">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1811,28 +2069,32 @@
         <v>0.46</v>
       </c>
       <c r="H35">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="I35">
         <v>0.65</v>
       </c>
       <c r="J35">
-        <v>0.65</v>
+        <v>0.81</v>
       </c>
       <c r="K35">
         <v>0.85</v>
       </c>
       <c r="L35">
-        <v>-1.86</v>
+        <v>-2.98</v>
       </c>
       <c r="M35">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>-2.98E-2</v>
       </c>
       <c r="N35">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="O35">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1855,28 +2117,32 @@
         <v>0.46</v>
       </c>
       <c r="H36">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="I36">
         <v>0.65</v>
       </c>
       <c r="J36">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="K36">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L36">
-        <v>-2.2400000000000002</v>
+        <v>-3.78</v>
       </c>
       <c r="M36">
-        <v>0.12</v>
+        <f t="shared" si="0"/>
+        <v>-3.78E-2</v>
       </c>
       <c r="N36">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.24</v>
+      </c>
+      <c r="O36">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1899,28 +2165,32 @@
         <v>0.46</v>
       </c>
       <c r="H37">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="I37">
         <v>0.65</v>
       </c>
       <c r="J37">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="K37">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L37">
-        <v>-2.5499999999999998</v>
+        <v>-5.34</v>
       </c>
       <c r="M37">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>-5.3399999999999996E-2</v>
       </c>
       <c r="N37">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.37</v>
+      </c>
+      <c r="O37">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1937,34 +2207,38 @@
         <v>11</v>
       </c>
       <c r="F38" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38">
+        <v>0.53</v>
+      </c>
+      <c r="H38">
+        <v>0.25</v>
+      </c>
+      <c r="I38">
+        <v>0.7</v>
+      </c>
+      <c r="J38">
         <v>0.46</v>
-      </c>
-      <c r="H38">
-        <v>0.68</v>
-      </c>
-      <c r="I38">
-        <v>0.65</v>
-      </c>
-      <c r="J38">
-        <v>0.81</v>
       </c>
       <c r="K38">
         <v>0.85</v>
       </c>
       <c r="L38">
-        <v>-2.98</v>
+        <v>-1.29</v>
       </c>
       <c r="M38">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>-1.29E-2</v>
       </c>
       <c r="N38">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O38">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1981,78 +2255,134 @@
         <v>11</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39">
+        <v>0.53</v>
+      </c>
+      <c r="H39">
+        <v>0.31</v>
+      </c>
+      <c r="I39">
+        <v>0.7</v>
+      </c>
+      <c r="J39">
+        <v>0.53</v>
+      </c>
+      <c r="K39">
+        <v>0.85</v>
+      </c>
+      <c r="L39">
+        <v>-1.46</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>-1.46E-2</v>
+      </c>
+      <c r="N39">
+        <v>0.11</v>
+      </c>
+      <c r="O39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>10.58</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>0.53</v>
+      </c>
+      <c r="H40">
+        <v>0.39</v>
+      </c>
+      <c r="I40">
+        <v>0.7</v>
+      </c>
+      <c r="J40">
+        <v>0.59</v>
+      </c>
+      <c r="K40">
+        <v>0.85</v>
+      </c>
+      <c r="L40">
+        <v>-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>-0.02</v>
+      </c>
+      <c r="N40">
+        <v>0.11</v>
+      </c>
+      <c r="O40">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>10.58</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>0.53</v>
+      </c>
+      <c r="H41">
         <v>0.46</v>
       </c>
-      <c r="H39">
-        <v>0.77</v>
-      </c>
-      <c r="I39">
+      <c r="I41">
+        <v>0.7</v>
+      </c>
+      <c r="J41">
         <v>0.65</v>
       </c>
-      <c r="J39">
-        <v>0.87</v>
-      </c>
-      <c r="K39">
-        <v>0.84</v>
-      </c>
-      <c r="L39">
-        <v>-3.78</v>
-      </c>
-      <c r="M39">
-        <v>0.24</v>
-      </c>
-      <c r="N39">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>10.58</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="1">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>0.46</v>
-      </c>
-      <c r="H40">
-        <v>0.88</v>
-      </c>
-      <c r="I40">
-        <v>0.65</v>
-      </c>
-      <c r="J40">
-        <v>0.97</v>
-      </c>
-      <c r="K40">
-        <v>0.84</v>
-      </c>
-      <c r="L40">
-        <v>-5.34</v>
-      </c>
-      <c r="M40">
-        <v>0.37</v>
-      </c>
-      <c r="N40">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0.85</v>
+      </c>
+      <c r="L41">
+        <v>-2.04</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>-2.0400000000000001E-2</v>
+      </c>
+      <c r="N41">
+        <v>0.12</v>
+      </c>
+      <c r="O41">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2072,31 +2402,35 @@
         <v>5</v>
       </c>
       <c r="G42">
+        <v>0.54</v>
+      </c>
+      <c r="H42">
         <v>0.53</v>
-      </c>
-      <c r="H42">
-        <v>0.25</v>
       </c>
       <c r="I42">
         <v>0.7</v>
       </c>
       <c r="J42">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="K42">
         <v>0.85</v>
       </c>
       <c r="L42">
-        <v>-1.29</v>
+        <v>-2.48</v>
       </c>
       <c r="M42">
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>-2.4799999999999999E-2</v>
       </c>
       <c r="N42">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="O42">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2116,31 +2450,35 @@
         <v>5</v>
       </c>
       <c r="G43">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="H43">
-        <v>0.31</v>
+        <v>0.61</v>
       </c>
       <c r="I43">
         <v>0.7</v>
       </c>
       <c r="J43">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
       <c r="K43">
         <v>0.85</v>
       </c>
       <c r="L43">
-        <v>-1.46</v>
+        <v>-3.07</v>
       </c>
       <c r="M43">
-        <v>0.11</v>
+        <f t="shared" si="0"/>
+        <v>-3.0699999999999998E-2</v>
       </c>
       <c r="N43">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+      <c r="O43">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2160,31 +2498,35 @@
         <v>5</v>
       </c>
       <c r="G44">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="H44">
-        <v>0.39</v>
+        <v>0.68</v>
       </c>
       <c r="I44">
         <v>0.7</v>
       </c>
       <c r="J44">
-        <v>0.59</v>
+        <v>0.81</v>
       </c>
       <c r="K44">
         <v>0.85</v>
       </c>
       <c r="L44">
-        <v>-2</v>
+        <v>-3.29</v>
       </c>
       <c r="M44">
-        <v>0.11</v>
+        <f t="shared" si="0"/>
+        <v>-3.2899999999999999E-2</v>
       </c>
       <c r="N44">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+      <c r="O44">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2204,31 +2546,35 @@
         <v>5</v>
       </c>
       <c r="G45">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="H45">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="I45">
         <v>0.7</v>
       </c>
       <c r="J45">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="K45">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L45">
-        <v>-2.04</v>
+        <v>-4.2</v>
       </c>
       <c r="M45">
-        <v>0.12</v>
+        <f t="shared" si="0"/>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="N45">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2251,28 +2597,32 @@
         <v>0.54</v>
       </c>
       <c r="H46">
-        <v>0.53</v>
+        <v>0.88</v>
       </c>
       <c r="I46">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="J46">
-        <v>0.7</v>
+        <v>0.97</v>
       </c>
       <c r="K46">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L46">
-        <v>-2.48</v>
+        <v>-5.85</v>
       </c>
       <c r="M46">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>-5.8499999999999996E-2</v>
       </c>
       <c r="N46">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+      <c r="O46">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2289,34 +2639,38 @@
         <v>11</v>
       </c>
       <c r="F47" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="H47">
-        <v>0.61</v>
+        <v>0.25</v>
       </c>
       <c r="I47">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="J47">
-        <v>0.76</v>
+        <v>0.46</v>
       </c>
       <c r="K47">
         <v>0.85</v>
       </c>
       <c r="L47">
-        <v>-3.07</v>
+        <v>-1.59</v>
       </c>
       <c r="M47">
+        <f t="shared" si="0"/>
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="N47">
         <v>0.18</v>
       </c>
-      <c r="N47">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2333,34 +2687,38 @@
         <v>11</v>
       </c>
       <c r="F48" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="H48">
-        <v>0.68</v>
+        <v>0.31</v>
       </c>
       <c r="I48">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="J48">
-        <v>0.81</v>
+        <v>0.53</v>
       </c>
       <c r="K48">
         <v>0.85</v>
       </c>
       <c r="L48">
-        <v>-3.29</v>
+        <v>-1.67</v>
       </c>
       <c r="M48">
-        <v>0.23</v>
+        <f t="shared" si="0"/>
+        <v>-1.67E-2</v>
       </c>
       <c r="N48">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+      <c r="O48">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2377,78 +2735,134 @@
         <v>11</v>
       </c>
       <c r="F49" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="H49">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="I49">
+        <v>0.76</v>
+      </c>
+      <c r="J49">
+        <v>0.59</v>
+      </c>
+      <c r="K49">
+        <v>0.85</v>
+      </c>
+      <c r="L49">
+        <v>-1.94</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>-1.9400000000000001E-2</v>
+      </c>
+      <c r="N49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>10.58</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>0.61</v>
+      </c>
+      <c r="H50">
+        <v>0.46</v>
+      </c>
+      <c r="I50">
+        <v>0.76</v>
+      </c>
+      <c r="J50">
+        <v>0.65</v>
+      </c>
+      <c r="K50">
+        <v>0.85</v>
+      </c>
+      <c r="L50">
+        <v>-2.42</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>-2.4199999999999999E-2</v>
+      </c>
+      <c r="N50">
+        <v>0.15</v>
+      </c>
+      <c r="O50">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>10.58</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>0.61</v>
+      </c>
+      <c r="H51">
+        <v>0.53</v>
+      </c>
+      <c r="I51">
+        <v>0.76</v>
+      </c>
+      <c r="J51">
         <v>0.7</v>
       </c>
-      <c r="J49">
-        <v>0.87</v>
-      </c>
-      <c r="K49">
-        <v>0.84</v>
-      </c>
-      <c r="L49">
-        <v>-4.2</v>
-      </c>
-      <c r="M49">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N49">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>10.58</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="1">
-        <v>5</v>
-      </c>
-      <c r="G50">
-        <v>0.54</v>
-      </c>
-      <c r="H50">
-        <v>0.88</v>
-      </c>
-      <c r="I50">
-        <v>0.71</v>
-      </c>
-      <c r="J50">
-        <v>0.97</v>
-      </c>
-      <c r="K50">
-        <v>0.84</v>
-      </c>
-      <c r="L50">
-        <v>-5.85</v>
-      </c>
-      <c r="M50">
-        <v>0.43</v>
-      </c>
-      <c r="N50">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>0.85</v>
+      </c>
+      <c r="L51">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>-2.53E-2</v>
+      </c>
+      <c r="N51">
+        <v>0.18</v>
+      </c>
+      <c r="O51">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2471,28 +2885,32 @@
         <v>0.61</v>
       </c>
       <c r="H52">
-        <v>0.25</v>
+        <v>0.61</v>
       </c>
       <c r="I52">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="J52">
-        <v>0.46</v>
+        <v>0.75</v>
       </c>
       <c r="K52">
         <v>0.85</v>
       </c>
       <c r="L52">
-        <v>-1.59</v>
+        <v>-3.28</v>
       </c>
       <c r="M52">
-        <v>0.18</v>
+        <f t="shared" si="0"/>
+        <v>-3.2799999999999996E-2</v>
       </c>
       <c r="N52">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2515,28 +2933,32 @@
         <v>0.61</v>
       </c>
       <c r="H53">
-        <v>0.31</v>
+        <v>0.68</v>
       </c>
       <c r="I53">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="J53">
-        <v>0.53</v>
+        <v>0.81</v>
       </c>
       <c r="K53">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L53">
-        <v>-1.67</v>
+        <v>-3.5</v>
       </c>
       <c r="M53">
-        <v>0.13</v>
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="N53">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O53">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2559,28 +2981,32 @@
         <v>0.61</v>
       </c>
       <c r="H54">
-        <v>0.39</v>
+        <v>0.77</v>
       </c>
       <c r="I54">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="J54">
-        <v>0.59</v>
+        <v>0.87</v>
       </c>
       <c r="K54">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L54">
-        <v>-1.94</v>
+        <v>-5.04</v>
       </c>
       <c r="M54">
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>-5.04E-2</v>
       </c>
       <c r="N54">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+      <c r="O54">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2603,28 +3029,32 @@
         <v>0.61</v>
       </c>
       <c r="H55">
-        <v>0.46</v>
+        <v>0.88</v>
       </c>
       <c r="I55">
         <v>0.76</v>
       </c>
       <c r="J55">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
       <c r="K55">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L55">
-        <v>-2.42</v>
+        <v>-7.02</v>
       </c>
       <c r="M55">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>-7.0199999999999999E-2</v>
       </c>
       <c r="N55">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2641,34 +3071,38 @@
         <v>11</v>
       </c>
       <c r="F56" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="H56">
-        <v>0.53</v>
+        <v>0.25</v>
       </c>
       <c r="I56">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="J56">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="K56">
         <v>0.85</v>
       </c>
       <c r="L56">
-        <v>-2.5299999999999998</v>
+        <v>-1.7</v>
       </c>
       <c r="M56">
-        <v>0.18</v>
+        <f t="shared" si="0"/>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="N56">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+      <c r="O56">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2685,34 +3119,38 @@
         <v>11</v>
       </c>
       <c r="F57" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="H57">
-        <v>0.61</v>
+        <v>0.31</v>
       </c>
       <c r="I57">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="J57">
-        <v>0.75</v>
+        <v>0.53</v>
       </c>
       <c r="K57">
         <v>0.85</v>
       </c>
       <c r="L57">
-        <v>-3.28</v>
+        <v>-2.06</v>
       </c>
       <c r="M57">
-        <v>0.22</v>
+        <f t="shared" si="0"/>
+        <v>-2.06E-2</v>
       </c>
       <c r="N57">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+      <c r="O57">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2729,78 +3167,86 @@
         <v>11</v>
       </c>
       <c r="F58" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="H58">
+        <v>0.39</v>
+      </c>
+      <c r="I58">
+        <v>0.81</v>
+      </c>
+      <c r="J58">
+        <v>0.59</v>
+      </c>
+      <c r="K58">
+        <v>0.85</v>
+      </c>
+      <c r="L58">
+        <v>-2.4</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="N58">
+        <v>0.17</v>
+      </c>
+      <c r="O58">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>10.58</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7</v>
+      </c>
+      <c r="G59">
         <v>0.68</v>
       </c>
-      <c r="I58">
-        <v>0.75</v>
-      </c>
-      <c r="J58">
+      <c r="H59">
+        <v>0.46</v>
+      </c>
+      <c r="I59">
         <v>0.81</v>
       </c>
-      <c r="K58">
-        <v>0.84</v>
-      </c>
-      <c r="L58">
-        <v>-3.5</v>
-      </c>
-      <c r="M58">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N58">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>10.58</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="1">
-        <v>6</v>
-      </c>
-      <c r="G59">
-        <v>0.61</v>
-      </c>
-      <c r="H59">
-        <v>0.77</v>
-      </c>
-      <c r="I59">
-        <v>0.75</v>
-      </c>
       <c r="J59">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="K59">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="L59">
-        <v>-5.04</v>
+        <v>-3.09</v>
       </c>
       <c r="M59">
-        <v>0.35</v>
+        <f t="shared" si="0"/>
+        <v>-3.0899999999999997E-2</v>
       </c>
       <c r="N59">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="O59">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2817,34 +3263,86 @@
         <v>11</v>
       </c>
       <c r="F60" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="H60">
-        <v>0.88</v>
+        <v>0.53</v>
       </c>
       <c r="I60">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="J60">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="K60">
         <v>0.84</v>
       </c>
       <c r="L60">
-        <v>-7.02</v>
+        <v>-3.24</v>
       </c>
       <c r="M60">
-        <v>0.52</v>
+        <f t="shared" si="0"/>
+        <v>-3.2400000000000005E-2</v>
       </c>
       <c r="N60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+      <c r="O60">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>10.58</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>0.68</v>
+      </c>
+      <c r="H61">
+        <v>0.61</v>
+      </c>
+      <c r="I61">
+        <v>0.81</v>
+      </c>
+      <c r="J61">
+        <v>0.75</v>
+      </c>
+      <c r="K61">
+        <v>0.84</v>
+      </c>
+      <c r="L61">
+        <v>-3.77</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>-3.7699999999999997E-2</v>
+      </c>
+      <c r="N61">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O61">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2867,28 +3365,32 @@
         <v>0.68</v>
       </c>
       <c r="H62">
-        <v>0.25</v>
+        <v>0.68</v>
       </c>
       <c r="I62">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="J62">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="K62">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L62">
-        <v>-1.7</v>
+        <v>-4.29</v>
       </c>
       <c r="M62">
-        <v>0.23</v>
+        <f t="shared" si="0"/>
+        <v>-4.2900000000000001E-2</v>
       </c>
       <c r="N62">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+      <c r="O62">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2911,28 +3413,32 @@
         <v>0.68</v>
       </c>
       <c r="H63">
-        <v>0.31</v>
+        <v>0.77</v>
       </c>
       <c r="I63">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="J63">
-        <v>0.53</v>
+        <v>0.87</v>
       </c>
       <c r="K63">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L63">
-        <v>-2.06</v>
+        <v>-4.6399999999999997</v>
       </c>
       <c r="M63">
-        <v>0.17</v>
+        <f t="shared" si="0"/>
+        <v>-4.6399999999999997E-2</v>
       </c>
       <c r="N63">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+      <c r="O63">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2955,28 +3461,32 @@
         <v>0.68</v>
       </c>
       <c r="H64">
-        <v>0.39</v>
+        <v>0.88</v>
       </c>
       <c r="I64">
         <v>0.81</v>
       </c>
       <c r="J64">
-        <v>0.59</v>
+        <v>0.96</v>
       </c>
       <c r="K64">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L64">
-        <v>-2.4</v>
+        <v>-6.88</v>
       </c>
       <c r="M64">
-        <v>0.17</v>
+        <f t="shared" si="0"/>
+        <v>-6.88E-2</v>
       </c>
       <c r="N64">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+      <c r="O64">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2993,122 +3503,134 @@
         <v>11</v>
       </c>
       <c r="F65" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G65">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="H65">
+        <v>0.25</v>
+      </c>
+      <c r="I65">
+        <v>0.88</v>
+      </c>
+      <c r="J65">
         <v>0.46</v>
-      </c>
-      <c r="I65">
-        <v>0.81</v>
-      </c>
-      <c r="J65">
-        <v>0.65</v>
       </c>
       <c r="K65">
         <v>0.85</v>
       </c>
       <c r="L65">
-        <v>-3.09</v>
+        <v>-2.91</v>
       </c>
       <c r="M65">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>-2.9100000000000001E-2</v>
       </c>
       <c r="N65">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O65">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>10.58</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>0.77</v>
+      </c>
+      <c r="H66">
+        <v>0.31</v>
+      </c>
+      <c r="I66">
+        <v>0.88</v>
+      </c>
+      <c r="J66">
+        <v>0.53</v>
+      </c>
+      <c r="K66">
+        <v>0.85</v>
+      </c>
+      <c r="L66">
+        <v>-2.67</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>-2.6699999999999998E-2</v>
+      </c>
+      <c r="N66">
+        <v>0.21</v>
+      </c>
+      <c r="O66">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>10.58</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="1">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <v>0.77</v>
+      </c>
+      <c r="H67">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>10.58</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="1">
-        <v>7</v>
-      </c>
-      <c r="G66">
-        <v>0.68</v>
-      </c>
-      <c r="H66">
-        <v>0.53</v>
-      </c>
-      <c r="I66">
-        <v>0.81</v>
-      </c>
-      <c r="J66">
-        <v>0.7</v>
-      </c>
-      <c r="K66">
-        <v>0.84</v>
-      </c>
-      <c r="L66">
-        <v>-3.24</v>
-      </c>
-      <c r="M66">
-        <v>0.23</v>
-      </c>
-      <c r="N66">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>10.58</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="1">
-        <v>7</v>
-      </c>
-      <c r="G67">
-        <v>0.68</v>
-      </c>
-      <c r="H67">
-        <v>0.61</v>
-      </c>
       <c r="I67">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="J67">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="K67">
         <v>0.84</v>
       </c>
       <c r="L67">
-        <v>-3.77</v>
+        <v>-3.16</v>
       </c>
       <c r="M67">
-        <v>0.28999999999999998</v>
+        <f t="shared" ref="M67:M82" si="1">L67/100</f>
+        <v>-3.1600000000000003E-2</v>
       </c>
       <c r="N67">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+      <c r="O67">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3125,34 +3647,38 @@
         <v>11</v>
       </c>
       <c r="F68" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G68">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="H68">
-        <v>0.68</v>
+        <v>0.46</v>
       </c>
       <c r="I68">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="J68">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="K68">
         <v>0.84</v>
       </c>
       <c r="L68">
-        <v>-4.29</v>
+        <v>-3.36</v>
       </c>
       <c r="M68">
-        <v>0.36</v>
+        <f t="shared" si="1"/>
+        <v>-3.3599999999999998E-2</v>
       </c>
       <c r="N68">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.24</v>
+      </c>
+      <c r="O68">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3169,34 +3695,38 @@
         <v>11</v>
       </c>
       <c r="F69" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="H69">
-        <v>0.77</v>
+        <v>0.53</v>
       </c>
       <c r="I69">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="J69">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="K69">
         <v>0.84</v>
       </c>
       <c r="L69">
-        <v>-4.6399999999999997</v>
+        <v>-3.64</v>
       </c>
       <c r="M69">
-        <v>0.44</v>
+        <f t="shared" si="1"/>
+        <v>-3.6400000000000002E-2</v>
       </c>
       <c r="N69">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O69">
         <v>0.67</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3213,34 +3743,86 @@
         <v>11</v>
       </c>
       <c r="F70" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G70">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="H70">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="I70">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="J70">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="K70">
         <v>0.84</v>
       </c>
       <c r="L70">
-        <v>-6.88</v>
+        <v>-4.75</v>
       </c>
       <c r="M70">
-        <v>0.65</v>
+        <f t="shared" si="1"/>
+        <v>-4.7500000000000001E-2</v>
       </c>
       <c r="N70">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+      <c r="O70">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>10.58</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1">
+        <v>8</v>
+      </c>
+      <c r="G71">
+        <v>0.77</v>
+      </c>
+      <c r="H71">
+        <v>0.68</v>
+      </c>
+      <c r="I71">
+        <v>0.87</v>
+      </c>
+      <c r="J71">
+        <v>0.8</v>
+      </c>
+      <c r="K71">
+        <v>0.84</v>
+      </c>
+      <c r="L71">
+        <v>-5.69</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>-5.6900000000000006E-2</v>
+      </c>
+      <c r="N71">
+        <v>0.44</v>
+      </c>
+      <c r="O71">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3263,28 +3845,32 @@
         <v>0.77</v>
       </c>
       <c r="H72">
-        <v>0.25</v>
+        <v>0.77</v>
       </c>
       <c r="I72">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J72">
-        <v>0.46</v>
+        <v>0.86</v>
       </c>
       <c r="K72">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L72">
-        <v>-2.91</v>
+        <v>-7.66</v>
       </c>
       <c r="M72">
-        <v>0.28999999999999998</v>
+        <f t="shared" si="1"/>
+        <v>-7.6600000000000001E-2</v>
       </c>
       <c r="N72">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+      <c r="O72">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3307,72 +3893,80 @@
         <v>0.77</v>
       </c>
       <c r="H73">
-        <v>0.31</v>
+        <v>0.88</v>
       </c>
       <c r="I73">
+        <v>0.87</v>
+      </c>
+      <c r="J73">
+        <v>0.96</v>
+      </c>
+      <c r="K73">
+        <v>0.83</v>
+      </c>
+      <c r="L73">
+        <v>-10.01</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>-0.10009999999999999</v>
+      </c>
+      <c r="N73">
+        <v>0.76</v>
+      </c>
+      <c r="O73">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>10.58</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="1">
+        <v>9</v>
+      </c>
+      <c r="G74">
         <v>0.88</v>
       </c>
-      <c r="J73">
-        <v>0.53</v>
-      </c>
-      <c r="K73">
-        <v>0.85</v>
-      </c>
-      <c r="L73">
-        <v>-2.67</v>
-      </c>
-      <c r="M73">
-        <v>0.21</v>
-      </c>
-      <c r="N73">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>10.58</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="1">
-        <v>8</v>
-      </c>
-      <c r="G74">
-        <v>0.77</v>
-      </c>
       <c r="H74">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="I74">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="J74">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
       <c r="K74">
         <v>0.84</v>
       </c>
       <c r="L74">
-        <v>-3.16</v>
+        <v>-2.86</v>
       </c>
       <c r="M74">
-        <v>0.22</v>
+        <f t="shared" si="1"/>
+        <v>-2.86E-2</v>
       </c>
       <c r="N74">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+      <c r="O74">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3389,34 +3983,38 @@
         <v>11</v>
       </c>
       <c r="F75" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G75">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="H75">
-        <v>0.46</v>
+        <v>0.31</v>
       </c>
       <c r="I75">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="J75">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="K75">
         <v>0.84</v>
       </c>
       <c r="L75">
-        <v>-3.36</v>
+        <v>-4.29</v>
       </c>
       <c r="M75">
-        <v>0.24</v>
+        <f t="shared" si="1"/>
+        <v>-4.2900000000000001E-2</v>
       </c>
       <c r="N75">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.33</v>
+      </c>
+      <c r="O75">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3433,34 +4031,38 @@
         <v>11</v>
       </c>
       <c r="F76" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G76">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="H76">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="I76">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="J76">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="K76">
         <v>0.84</v>
       </c>
       <c r="L76">
-        <v>-3.64</v>
+        <v>-4.59</v>
       </c>
       <c r="M76">
-        <v>0.28000000000000003</v>
+        <f t="shared" si="1"/>
+        <v>-4.5899999999999996E-2</v>
       </c>
       <c r="N76">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="O76">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3477,34 +4079,38 @@
         <v>11</v>
       </c>
       <c r="F77" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G77">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="H77">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="I77">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="J77">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="K77">
         <v>0.84</v>
       </c>
       <c r="L77">
-        <v>-4.75</v>
+        <v>-5.62</v>
       </c>
       <c r="M77">
-        <v>0.35</v>
+        <f t="shared" si="1"/>
+        <v>-5.62E-2</v>
       </c>
       <c r="N77">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.37</v>
+      </c>
+      <c r="O77">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3521,78 +4127,86 @@
         <v>11</v>
       </c>
       <c r="F78" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="H78">
-        <v>0.68</v>
+        <v>0.53</v>
       </c>
       <c r="I78">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="J78">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="K78">
         <v>0.84</v>
       </c>
       <c r="L78">
-        <v>-5.69</v>
+        <v>-5.56</v>
       </c>
       <c r="M78">
-        <v>0.44</v>
+        <f t="shared" si="1"/>
+        <v>-5.5599999999999997E-2</v>
       </c>
       <c r="N78">
+        <v>0.43</v>
+      </c>
+      <c r="O78">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>10.58</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1">
+        <v>9</v>
+      </c>
+      <c r="G79">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79">
-        <v>10.58</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="1">
-        <v>8</v>
-      </c>
-      <c r="G79">
-        <v>0.77</v>
-      </c>
       <c r="H79">
-        <v>0.77</v>
+        <v>0.61</v>
       </c>
       <c r="I79">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="J79">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="K79">
         <v>0.84</v>
       </c>
       <c r="L79">
-        <v>-7.66</v>
+        <v>-6.22</v>
       </c>
       <c r="M79">
+        <f t="shared" si="1"/>
+        <v>-6.2199999999999998E-2</v>
+      </c>
+      <c r="N79">
         <v>0.52</v>
       </c>
-      <c r="N79">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3609,34 +4223,86 @@
         <v>11</v>
       </c>
       <c r="F80" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G80">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="H80">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="I80">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="J80">
-        <v>0.96</v>
+        <v>0.81</v>
       </c>
       <c r="K80">
         <v>0.83</v>
       </c>
       <c r="L80">
-        <v>-10.01</v>
+        <v>-6.79</v>
       </c>
       <c r="M80">
+        <f t="shared" si="1"/>
+        <v>-6.7900000000000002E-2</v>
+      </c>
+      <c r="N80">
+        <v>0.65</v>
+      </c>
+      <c r="O80">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>10.58</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>0.88</v>
+      </c>
+      <c r="H81">
+        <v>0.77</v>
+      </c>
+      <c r="I81">
+        <v>0.96</v>
+      </c>
+      <c r="J81">
+        <v>0.87</v>
+      </c>
+      <c r="K81">
+        <v>0.83</v>
+      </c>
+      <c r="L81">
+        <v>-7.08</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>-7.0800000000000002E-2</v>
+      </c>
+      <c r="N81">
         <v>0.76</v>
       </c>
-      <c r="N80">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3659,376 +4325,28 @@
         <v>0.88</v>
       </c>
       <c r="H82">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="I82">
         <v>0.97</v>
       </c>
       <c r="J82">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
       <c r="K82">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L82">
-        <v>-2.86</v>
+        <v>-10.11</v>
       </c>
       <c r="M82">
-        <v>0.46</v>
+        <f t="shared" si="1"/>
+        <v>-0.1011</v>
       </c>
       <c r="N82">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83">
-        <v>10.58</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="1">
-        <v>9</v>
-      </c>
-      <c r="G83">
-        <v>0.88</v>
-      </c>
-      <c r="H83">
-        <v>0.31</v>
-      </c>
-      <c r="I83">
-        <v>0.97</v>
-      </c>
-      <c r="J83">
-        <v>0.53</v>
-      </c>
-      <c r="K83">
-        <v>0.84</v>
-      </c>
-      <c r="L83">
-        <v>-4.29</v>
-      </c>
-      <c r="M83">
-        <v>0.33</v>
-      </c>
-      <c r="N83">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="D84">
-        <v>10.58</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="1">
-        <v>9</v>
-      </c>
-      <c r="G84">
-        <v>0.88</v>
-      </c>
-      <c r="H84">
-        <v>0.39</v>
-      </c>
-      <c r="I84">
-        <v>0.97</v>
-      </c>
-      <c r="J84">
-        <v>0.59</v>
-      </c>
-      <c r="K84">
-        <v>0.84</v>
-      </c>
-      <c r="L84">
-        <v>-4.59</v>
-      </c>
-      <c r="M84">
-        <v>0.3</v>
-      </c>
-      <c r="N84">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-      <c r="D85">
-        <v>10.58</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="1">
-        <v>9</v>
-      </c>
-      <c r="G85">
-        <v>0.88</v>
-      </c>
-      <c r="H85">
-        <v>0.46</v>
-      </c>
-      <c r="I85">
-        <v>0.97</v>
-      </c>
-      <c r="J85">
-        <v>0.65</v>
-      </c>
-      <c r="K85">
-        <v>0.84</v>
-      </c>
-      <c r="L85">
-        <v>-5.62</v>
-      </c>
-      <c r="M85">
-        <v>0.37</v>
-      </c>
-      <c r="N85">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-      <c r="D86">
-        <v>10.58</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="1">
-        <v>9</v>
-      </c>
-      <c r="G86">
-        <v>0.88</v>
-      </c>
-      <c r="H86">
-        <v>0.53</v>
-      </c>
-      <c r="I86">
-        <v>0.97</v>
-      </c>
-      <c r="J86">
-        <v>0.71</v>
-      </c>
-      <c r="K86">
-        <v>0.84</v>
-      </c>
-      <c r="L86">
-        <v>-5.56</v>
-      </c>
-      <c r="M86">
-        <v>0.43</v>
-      </c>
-      <c r="N86">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>10.58</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="1">
-        <v>9</v>
-      </c>
-      <c r="G87">
-        <v>0.88</v>
-      </c>
-      <c r="H87">
-        <v>0.61</v>
-      </c>
-      <c r="I87">
-        <v>0.96</v>
-      </c>
-      <c r="J87">
-        <v>0.76</v>
-      </c>
-      <c r="K87">
-        <v>0.84</v>
-      </c>
-      <c r="L87">
-        <v>-6.22</v>
-      </c>
-      <c r="M87">
-        <v>0.52</v>
-      </c>
-      <c r="N87">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88">
-        <v>4</v>
-      </c>
-      <c r="D88">
-        <v>10.58</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="1">
-        <v>9</v>
-      </c>
-      <c r="G88">
-        <v>0.88</v>
-      </c>
-      <c r="H88">
-        <v>0.68</v>
-      </c>
-      <c r="I88">
-        <v>0.96</v>
-      </c>
-      <c r="J88">
-        <v>0.81</v>
-      </c>
-      <c r="K88">
-        <v>0.83</v>
-      </c>
-      <c r="L88">
-        <v>-6.79</v>
-      </c>
-      <c r="M88">
-        <v>0.65</v>
-      </c>
-      <c r="N88">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-      <c r="D89">
-        <v>10.58</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="1">
-        <v>9</v>
-      </c>
-      <c r="G89">
-        <v>0.88</v>
-      </c>
-      <c r="H89">
-        <v>0.77</v>
-      </c>
-      <c r="I89">
-        <v>0.96</v>
-      </c>
-      <c r="J89">
-        <v>0.87</v>
-      </c>
-      <c r="K89">
-        <v>0.83</v>
-      </c>
-      <c r="L89">
-        <v>-7.08</v>
-      </c>
-      <c r="M89">
-        <v>0.76</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90">
-        <v>4</v>
-      </c>
-      <c r="D90">
-        <v>10.58</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="1">
-        <v>9</v>
-      </c>
-      <c r="G90">
-        <v>0.88</v>
-      </c>
-      <c r="H90">
-        <v>0.88</v>
-      </c>
-      <c r="I90">
-        <v>0.97</v>
-      </c>
-      <c r="J90">
-        <v>0.97</v>
-      </c>
-      <c r="K90">
-        <v>0.83</v>
-      </c>
-      <c r="L90">
-        <v>-10.11</v>
-      </c>
-      <c r="M90">
         <v>1.05</v>
       </c>
-      <c r="N90">
+      <c r="O82">
         <v>1.4</v>
       </c>
     </row>

--- a/sia/expdata/5001.xlsx
+++ b/sia/expdata/5001.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="20">
   <si>
     <t>col</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>scaled st</t>
+  </si>
+  <si>
+    <t>scaled sy</t>
   </si>
 </sst>
 </file>
@@ -404,18 +410,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="14" width="10.85546875" customWidth="1"/>
+    <col min="11" max="15" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,13 +462,19 @@
         <v>7</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -507,10 +519,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O2">
+        <f>N2/100</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="P2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>P2/100</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -555,10 +575,18 @@
         <v>0.1</v>
       </c>
       <c r="O3">
+        <f t="shared" ref="O3:O66" si="1">N3/100</f>
+        <v>1E-3</v>
+      </c>
+      <c r="P3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="2">P3/100</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -603,10 +631,18 @@
         <v>0.11</v>
       </c>
       <c r="O4">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P4">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -651,10 +687,18 @@
         <v>0.12</v>
       </c>
       <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="P5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -699,10 +743,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O6">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="P6">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -747,10 +799,18 @@
         <v>0.18</v>
       </c>
       <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="P7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -795,10 +855,18 @@
         <v>0.23</v>
       </c>
       <c r="O8">
+        <f t="shared" si="1"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="P8">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -843,10 +911,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="P9">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>3.9000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -891,10 +967,18 @@
         <v>0.46</v>
       </c>
       <c r="O10">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="P10">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>6.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -939,10 +1023,18 @@
         <v>0.1</v>
       </c>
       <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P11">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -987,10 +1079,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O12">
+        <f t="shared" si="1"/>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="P12">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1035,10 +1135,18 @@
         <v>0.08</v>
       </c>
       <c r="O13">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="P13">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1083,10 +1191,18 @@
         <v>0.09</v>
       </c>
       <c r="O14">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P14">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1131,10 +1247,18 @@
         <v>0.11</v>
       </c>
       <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P15">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1179,10 +1303,18 @@
         <v>0.13</v>
       </c>
       <c r="O16">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="P16">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1227,10 +1359,18 @@
         <v>0.17</v>
       </c>
       <c r="O17">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="P17">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1275,10 +1415,18 @@
         <v>0.21</v>
       </c>
       <c r="O18">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="P18">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1323,10 +1471,18 @@
         <v>0.33</v>
       </c>
       <c r="O19">
+        <f t="shared" si="1"/>
+        <v>3.3E-3</v>
+      </c>
+      <c r="P19">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1371,10 +1527,18 @@
         <v>0.11</v>
       </c>
       <c r="O20">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P20">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1419,10 +1583,18 @@
         <v>0.08</v>
       </c>
       <c r="O21">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="P21">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1467,10 +1639,18 @@
         <v>0.08</v>
       </c>
       <c r="O22">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="P22">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1515,10 +1695,18 @@
         <v>0.09</v>
       </c>
       <c r="O23">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P23">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1563,10 +1751,18 @@
         <v>0.11</v>
       </c>
       <c r="O24">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P24">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1611,10 +1807,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O25">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="P25">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1659,10 +1863,18 @@
         <v>0.17</v>
       </c>
       <c r="O26">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="P26">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1707,10 +1919,18 @@
         <v>0.21</v>
       </c>
       <c r="O27">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="P27">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1755,10 +1975,18 @@
         <v>0.33</v>
       </c>
       <c r="O28">
+        <f t="shared" si="1"/>
+        <v>3.3E-3</v>
+      </c>
+      <c r="P28">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1803,10 +2031,18 @@
         <v>0.12</v>
       </c>
       <c r="O29">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="P29">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1851,10 +2087,18 @@
         <v>0.09</v>
       </c>
       <c r="O30">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P30">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1899,10 +2143,18 @@
         <v>0.09</v>
       </c>
       <c r="O31">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1947,10 +2199,18 @@
         <v>0.1</v>
       </c>
       <c r="O32">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P32">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1995,10 +2255,18 @@
         <v>0.12</v>
       </c>
       <c r="O33">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="P33">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2043,10 +2311,18 @@
         <v>0.15</v>
       </c>
       <c r="O34">
+        <f t="shared" si="1"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="P34">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2091,10 +2367,18 @@
         <v>0.2</v>
       </c>
       <c r="O35">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P35">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2139,10 +2423,18 @@
         <v>0.24</v>
       </c>
       <c r="O36">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="P36">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2187,10 +2479,18 @@
         <v>0.37</v>
       </c>
       <c r="O37">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="P37">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2235,10 +2535,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O38">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="P38">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2283,10 +2591,18 @@
         <v>0.11</v>
       </c>
       <c r="O39">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P39">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2331,10 +2647,18 @@
         <v>0.11</v>
       </c>
       <c r="O40">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P40">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2379,10 +2703,18 @@
         <v>0.12</v>
       </c>
       <c r="O41">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="P41">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2427,10 +2759,18 @@
         <v>0.15</v>
       </c>
       <c r="O42">
+        <f t="shared" si="1"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="P42">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2475,10 +2815,18 @@
         <v>0.18</v>
       </c>
       <c r="O43">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="P43">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2523,10 +2871,18 @@
         <v>0.23</v>
       </c>
       <c r="O44">
+        <f t="shared" si="1"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="P44">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2571,10 +2927,18 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O45">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="P45">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2619,10 +2983,18 @@
         <v>0.43</v>
       </c>
       <c r="O46">
+        <f t="shared" si="1"/>
+        <v>4.3E-3</v>
+      </c>
+      <c r="P46">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2667,10 +3039,18 @@
         <v>0.18</v>
       </c>
       <c r="O47">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="P47">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2715,10 +3095,18 @@
         <v>0.13</v>
       </c>
       <c r="O48">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="P48">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2763,10 +3151,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O49">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="P49">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2811,10 +3207,18 @@
         <v>0.15</v>
       </c>
       <c r="O50">
+        <f t="shared" si="1"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="P50">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2859,10 +3263,18 @@
         <v>0.18</v>
       </c>
       <c r="O51">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="P51">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2907,10 +3319,18 @@
         <v>0.22</v>
       </c>
       <c r="O52">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="P52">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2955,10 +3375,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O53">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="P53">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -3003,10 +3431,18 @@
         <v>0.35</v>
       </c>
       <c r="O54">
+        <f t="shared" si="1"/>
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="P54">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <f t="shared" si="2"/>
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3051,10 +3487,18 @@
         <v>0.52</v>
       </c>
       <c r="O55">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="P55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3099,10 +3543,18 @@
         <v>0.23</v>
       </c>
       <c r="O56">
+        <f t="shared" si="1"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="P56">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <f t="shared" si="2"/>
+        <v>3.9000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -3147,10 +3599,18 @@
         <v>0.17</v>
       </c>
       <c r="O57">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="P57">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3195,10 +3655,18 @@
         <v>0.17</v>
       </c>
       <c r="O58">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="P58">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <f t="shared" si="2"/>
+        <v>3.9000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3243,10 +3711,18 @@
         <v>0.2</v>
       </c>
       <c r="O59">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P59">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <f t="shared" si="2"/>
+        <v>3.9000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3291,10 +3767,18 @@
         <v>0.23</v>
       </c>
       <c r="O60">
+        <f t="shared" si="1"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="P60">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -3339,10 +3823,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O61">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="P61">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3387,10 +3879,18 @@
         <v>0.36</v>
       </c>
       <c r="O62">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="P62">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <f t="shared" si="2"/>
+        <v>7.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -3435,10 +3935,18 @@
         <v>0.44</v>
       </c>
       <c r="O63">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="P63">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <f t="shared" si="2"/>
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3483,10 +3991,18 @@
         <v>0.65</v>
       </c>
       <c r="O64">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="P64">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <f t="shared" si="2"/>
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3531,10 +4047,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O65">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="P65">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3579,10 +4103,18 @@
         <v>0.21</v>
       </c>
       <c r="O66">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="P66">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3620,17 +4152,25 @@
         <v>-3.16</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M82" si="1">L67/100</f>
+        <f t="shared" ref="M67:M82" si="3">L67/100</f>
         <v>-3.1600000000000003E-2</v>
       </c>
       <c r="N67">
         <v>0.22</v>
       </c>
       <c r="O67">
+        <f t="shared" ref="O67:O82" si="4">N67/100</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="P67">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q82" si="5">P67/100</f>
+        <v>4.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3668,17 +4208,25 @@
         <v>-3.36</v>
       </c>
       <c r="M68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.3599999999999998E-2</v>
       </c>
       <c r="N68">
         <v>0.24</v>
       </c>
       <c r="O68">
+        <f t="shared" si="4"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="P68">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <f t="shared" si="5"/>
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3716,17 +4264,25 @@
         <v>-3.64</v>
       </c>
       <c r="M69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.6400000000000002E-2</v>
       </c>
       <c r="N69">
         <v>0.28000000000000003</v>
       </c>
       <c r="O69">
+        <f t="shared" si="4"/>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="P69">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <f t="shared" si="5"/>
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3764,17 +4320,25 @@
         <v>-4.75</v>
       </c>
       <c r="M70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.7500000000000001E-2</v>
       </c>
       <c r="N70">
         <v>0.35</v>
       </c>
       <c r="O70">
+        <f t="shared" si="4"/>
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="P70">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <f t="shared" si="5"/>
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3812,17 +4376,25 @@
         <v>-5.69</v>
       </c>
       <c r="M71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6900000000000006E-2</v>
       </c>
       <c r="N71">
         <v>0.44</v>
       </c>
       <c r="O71">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="P71">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <f t="shared" si="5"/>
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3860,17 +4432,25 @@
         <v>-7.66</v>
       </c>
       <c r="M72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.6600000000000001E-2</v>
       </c>
       <c r="N72">
         <v>0.52</v>
       </c>
       <c r="O72">
+        <f t="shared" si="4"/>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="P72">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <f t="shared" si="5"/>
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3908,17 +4488,25 @@
         <v>-10.01</v>
       </c>
       <c r="M73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.10009999999999999</v>
       </c>
       <c r="N73">
         <v>0.76</v>
       </c>
       <c r="O73">
+        <f t="shared" si="4"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="P73">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <f t="shared" si="5"/>
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3956,17 +4544,25 @@
         <v>-2.86</v>
       </c>
       <c r="M74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.86E-2</v>
       </c>
       <c r="N74">
         <v>0.46</v>
       </c>
       <c r="O74">
+        <f t="shared" si="4"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="P74">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -4004,17 +4600,25 @@
         <v>-4.29</v>
       </c>
       <c r="M75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.2900000000000001E-2</v>
       </c>
       <c r="N75">
         <v>0.33</v>
       </c>
       <c r="O75">
+        <f t="shared" si="4"/>
+        <v>3.3E-3</v>
+      </c>
+      <c r="P75">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <f t="shared" si="5"/>
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -4052,17 +4656,25 @@
         <v>-4.59</v>
       </c>
       <c r="M76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.5899999999999996E-2</v>
       </c>
       <c r="N76">
         <v>0.3</v>
       </c>
       <c r="O76">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P76">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <f t="shared" si="5"/>
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -4100,17 +4712,25 @@
         <v>-5.62</v>
       </c>
       <c r="M77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.62E-2</v>
       </c>
       <c r="N77">
         <v>0.37</v>
       </c>
       <c r="O77">
+        <f t="shared" si="4"/>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="P77">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4148,17 +4768,25 @@
         <v>-5.56</v>
       </c>
       <c r="M78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5599999999999997E-2</v>
       </c>
       <c r="N78">
         <v>0.43</v>
       </c>
       <c r="O78">
+        <f t="shared" si="4"/>
+        <v>4.3E-3</v>
+      </c>
+      <c r="P78">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <f t="shared" si="5"/>
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -4196,17 +4824,25 @@
         <v>-6.22</v>
       </c>
       <c r="M79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.2199999999999998E-2</v>
       </c>
       <c r="N79">
         <v>0.52</v>
       </c>
       <c r="O79">
+        <f t="shared" si="4"/>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="P79">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <f t="shared" si="5"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4244,17 +4880,25 @@
         <v>-6.79</v>
       </c>
       <c r="M80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.7900000000000002E-2</v>
       </c>
       <c r="N80">
         <v>0.65</v>
       </c>
       <c r="O80">
+        <f t="shared" si="4"/>
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="P80">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <f t="shared" si="5"/>
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -4292,17 +4936,25 @@
         <v>-7.08</v>
       </c>
       <c r="M81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.0800000000000002E-2</v>
       </c>
       <c r="N81">
         <v>0.76</v>
       </c>
       <c r="O81">
+        <f t="shared" si="4"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="P81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -4340,14 +4992,22 @@
         <v>-10.11</v>
       </c>
       <c r="M82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.1011</v>
       </c>
       <c r="N82">
         <v>1.05</v>
       </c>
       <c r="O82">
+        <f t="shared" si="4"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="P82">
         <v>1.4</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="5"/>
+        <v>1.3999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
